--- a/trunk/GRF Monitoring Website/GRF Monitoring Website/Uploads/temp2.xlsx
+++ b/trunk/GRF Monitoring Website/GRF Monitoring Website/Uploads/temp2.xlsx
@@ -873,7 +873,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,7 +903,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="B2">
         <v>13</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>201</v>
+        <v>300</v>
       </c>
       <c r="B3">
         <v>13</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>202</v>
+        <v>300</v>
       </c>
       <c r="B4">
         <v>15</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>203</v>
+        <v>300</v>
       </c>
       <c r="B5" s="1">
         <v>15.6666666666667</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>204</v>
+        <v>300</v>
       </c>
       <c r="B6">
         <v>12</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>205</v>
+        <v>300</v>
       </c>
       <c r="B7">
         <v>13.3333333333333</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="B8">
         <v>13.1</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>207</v>
+        <v>300</v>
       </c>
       <c r="B9" s="1">
         <v>12.866666666666699</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>208</v>
+        <v>300</v>
       </c>
       <c r="B10">
         <v>12.6333333333334</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>209</v>
+        <v>300</v>
       </c>
       <c r="B11">
         <v>12.4</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="B12">
         <v>12.1666666666667</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>211</v>
+        <v>300</v>
       </c>
       <c r="B13" s="1">
         <v>11.933333333333399</v>

--- a/trunk/GRF Monitoring Website/GRF Monitoring Website/Uploads/temp2.xlsx
+++ b/trunk/GRF Monitoring Website/GRF Monitoring Website/Uploads/temp2.xlsx
@@ -873,7 +873,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,7 +903,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="B2">
         <v>13</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="B3">
         <v>13</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>300</v>
+        <v>202</v>
       </c>
       <c r="B4">
         <v>15</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>300</v>
+        <v>203</v>
       </c>
       <c r="B5" s="1">
         <v>15.6666666666667</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>300</v>
+        <v>204</v>
       </c>
       <c r="B6">
         <v>12</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>300</v>
+        <v>205</v>
       </c>
       <c r="B7">
         <v>13.3333333333333</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="B8">
         <v>13.1</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>300</v>
+        <v>207</v>
       </c>
       <c r="B9" s="1">
         <v>12.866666666666699</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>300</v>
+        <v>208</v>
       </c>
       <c r="B10">
         <v>12.6333333333334</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>300</v>
+        <v>209</v>
       </c>
       <c r="B11">
         <v>12.4</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="B12">
         <v>12.1666666666667</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>300</v>
+        <v>211</v>
       </c>
       <c r="B13" s="1">
         <v>11.933333333333399</v>
